--- a/excel_sheets/wageTime_sheets 2023/出退勤表　8月.xlsx
+++ b/excel_sheets/wageTime_sheets 2023/出退勤表　8月.xlsx
@@ -4037,13 +4037,23 @@
         <f>E31-D31</f>
         <v/>
       </c>
-      <c r="G31" s="23" t="n"/>
-      <c r="H31" s="24" t="n"/>
-      <c r="I31" s="25" t="n"/>
+      <c r="G31" s="23" t="n">
+        <v>7260</v>
+      </c>
+      <c r="H31" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="25" t="n">
+        <v>3000</v>
+      </c>
       <c r="J31" s="25" t="n"/>
-      <c r="K31" s="25" t="n"/>
+      <c r="K31" s="25" t="n">
+        <v>0</v>
+      </c>
       <c r="L31" s="25" t="n"/>
-      <c r="M31" s="26" t="n"/>
+      <c r="M31" s="26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" ht="18.6" customHeight="1" s="49" thickBot="1">
       <c r="B32" s="11" t="n">
@@ -5109,13 +5119,23 @@
         <f>E31-D31</f>
         <v/>
       </c>
-      <c r="G31" s="23" t="n"/>
-      <c r="H31" s="24" t="n"/>
-      <c r="I31" s="25" t="n"/>
+      <c r="G31" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" s="25" t="n">
+        <v>4000</v>
+      </c>
       <c r="J31" s="25" t="n"/>
-      <c r="K31" s="25" t="n"/>
+      <c r="K31" s="25" t="n">
+        <v>0</v>
+      </c>
       <c r="L31" s="25" t="n"/>
-      <c r="M31" s="26" t="n"/>
+      <c r="M31" s="26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" ht="18.6" customHeight="1" s="49" thickBot="1">
       <c r="B32" s="11" t="n">
@@ -6181,13 +6201,23 @@
         <f>E31-D31</f>
         <v/>
       </c>
-      <c r="G31" s="23" t="n"/>
-      <c r="H31" s="24" t="n"/>
-      <c r="I31" s="25" t="n"/>
+      <c r="G31" s="23" t="n">
+        <v>7260</v>
+      </c>
+      <c r="H31" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="25" t="n">
+        <v>0</v>
+      </c>
       <c r="J31" s="25" t="n"/>
-      <c r="K31" s="25" t="n"/>
+      <c r="K31" s="25" t="n">
+        <v>0</v>
+      </c>
       <c r="L31" s="25" t="n"/>
-      <c r="M31" s="26" t="n"/>
+      <c r="M31" s="26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" ht="18.6" customHeight="1" s="49" thickBot="1">
       <c r="B32" s="11" t="n">
@@ -7253,13 +7283,23 @@
         <f>E31-D31</f>
         <v/>
       </c>
-      <c r="G31" s="23" t="n"/>
-      <c r="H31" s="24" t="n"/>
-      <c r="I31" s="25" t="n"/>
+      <c r="G31" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="25" t="n">
+        <v>0</v>
+      </c>
       <c r="J31" s="25" t="n"/>
-      <c r="K31" s="25" t="n"/>
+      <c r="K31" s="25" t="n">
+        <v>0</v>
+      </c>
       <c r="L31" s="25" t="n"/>
-      <c r="M31" s="26" t="n"/>
+      <c r="M31" s="26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" ht="18.6" customHeight="1" s="49" thickBot="1">
       <c r="B32" s="11" t="n">
@@ -8325,13 +8365,23 @@
         <f>E31-D31</f>
         <v/>
       </c>
-      <c r="G31" s="23" t="n"/>
-      <c r="H31" s="24" t="n"/>
-      <c r="I31" s="25" t="n"/>
+      <c r="G31" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="25" t="n">
+        <v>0</v>
+      </c>
       <c r="J31" s="25" t="n"/>
-      <c r="K31" s="25" t="n"/>
+      <c r="K31" s="25" t="n">
+        <v>0</v>
+      </c>
       <c r="L31" s="25" t="n"/>
-      <c r="M31" s="26" t="n"/>
+      <c r="M31" s="26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" ht="18.6" customHeight="1" s="49" thickBot="1">
       <c r="B32" s="11" t="n">
@@ -9397,13 +9447,23 @@
         <f>E31-D31</f>
         <v/>
       </c>
-      <c r="G31" s="23" t="n"/>
-      <c r="H31" s="24" t="n"/>
-      <c r="I31" s="25" t="n"/>
+      <c r="G31" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="25" t="n">
+        <v>0</v>
+      </c>
       <c r="J31" s="25" t="n"/>
-      <c r="K31" s="25" t="n"/>
+      <c r="K31" s="25" t="n">
+        <v>3500</v>
+      </c>
       <c r="L31" s="25" t="n"/>
-      <c r="M31" s="26" t="n"/>
+      <c r="M31" s="26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" ht="18.6" customHeight="1" s="49" thickBot="1">
       <c r="B32" s="11" t="n">

--- a/excel_sheets/wageTime_sheets 2023/出退勤表　8月.xlsx
+++ b/excel_sheets/wageTime_sheets 2023/出退勤表　8月.xlsx
@@ -4070,13 +4070,23 @@
         <f>E32-D32</f>
         <v/>
       </c>
-      <c r="G32" s="23" t="n"/>
-      <c r="H32" s="24" t="n"/>
-      <c r="I32" s="25" t="n"/>
+      <c r="G32" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" s="25" t="n">
+        <v>3000</v>
+      </c>
       <c r="J32" s="25" t="n"/>
-      <c r="K32" s="25" t="n"/>
+      <c r="K32" s="25" t="n">
+        <v>0</v>
+      </c>
       <c r="L32" s="25" t="n"/>
-      <c r="M32" s="26" t="n"/>
+      <c r="M32" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="O32" s="20" t="inlineStr">
         <is>
           <t>参考値</t>
